--- a/biology/Médecine/District_hospitalier_en_Finlande/District_hospitalier_en_Finlande.xlsx
+++ b/biology/Médecine/District_hospitalier_en_Finlande/District_hospitalier_en_Finlande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un district hospitalier (finnois : Sairaanhoitopiiri, suédois : Sjukvårdsdistrikt) est une association de municipalités en Finlande ayant pour mission de fournir des services de soins de santé spécialisés aux résidents des municipalités membres[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un district hospitalier (finnois : Sairaanhoitopiiri, suédois : Sjukvårdsdistrikt) est une association de municipalités en Finlande ayant pour mission de fournir des services de soins de santé spécialisés aux résidents des municipalités membres.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Districts hospitaliers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Finlande, le système de santé est très décentralisé[3].
-Les soins hospitaliers sont gérés au sein de 20 districts hospitaliers qui regroupent une population comprise entre 70 000 et 800 000 habitants, chaque commune étant tenue d’appartenir à un district hospitalier[1].
-Chaque district hospitalier est sous la responsabilité spécifique d'un hôpital universitaire[4]. 
-En 2019, les 20 districts hospitaliers sont[5]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Finlande, le système de santé est très décentralisé.
+Les soins hospitaliers sont gérés au sein de 20 districts hospitaliers qui regroupent une population comprise entre 70 000 et 800 000 habitants, chaque commune étant tenue d’appartenir à un district hospitalier.
+Chaque district hospitalier est sous la responsabilité spécifique d'un hôpital universitaire. 
+En 2019, les 20 districts hospitaliers sont:
 </t>
         </is>
       </c>
